--- a/Calculation of dd points.xlsx
+++ b/Calculation of dd points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BEC_Classification_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230AA488-962C-4C75-A18B-7E8C0B4063EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5005EA25-B3C4-429E-BDDB-813507742716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41670" yWindow="0" windowWidth="33540" windowHeight="21000" xr2:uid="{3EDFFD97-A83A-4BFD-86A0-8D1D3619D952}"/>
+    <workbookView xWindow="1380" yWindow="570" windowWidth="20070" windowHeight="17310" activeTab="1" xr2:uid="{3EDFFD97-A83A-4BFD-86A0-8D1D3619D952}"/>
   </bookViews>
   <sheets>
     <sheet name="Dominant differential points" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3113,9 +3153,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3153,7 +3193,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3259,7 +3299,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3401,7 +3441,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3411,7 +3451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C170AE-A83C-47BA-B86A-8F7C361CDC9B}">
   <dimension ref="A2:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB40" sqref="AB40"/>
     </sheetView>
   </sheetViews>
@@ -4185,14 +4225,14 @@
         <v>0.01</v>
       </c>
       <c r="F20">
-        <f>SQRT(D20)</f>
+        <f t="shared" ref="F20:F30" si="12">SQRT(D20)</f>
         <v>0.1</v>
       </c>
       <c r="G20">
         <v>0.01</v>
       </c>
       <c r="I20">
-        <f>D20^(1/3)</f>
+        <f t="shared" ref="I20:I30" si="13">D20^(1/3)</f>
         <v>0.21544346900318845</v>
       </c>
       <c r="J20">
@@ -4207,14 +4247,14 @@
         <v>0.1</v>
       </c>
       <c r="F21">
-        <f>SQRT(D21)</f>
+        <f t="shared" si="12"/>
         <v>0.31622776601683794</v>
       </c>
       <c r="G21">
         <v>0.1</v>
       </c>
       <c r="I21">
-        <f>D21^(1/3)</f>
+        <f t="shared" si="13"/>
         <v>0.46415888336127797</v>
       </c>
       <c r="J21">
@@ -4229,14 +4269,14 @@
         <v>0.3</v>
       </c>
       <c r="F22">
-        <f>SQRT(D22)</f>
+        <f t="shared" si="12"/>
         <v>0.54772255750516607</v>
       </c>
       <c r="G22">
         <v>0.3</v>
       </c>
       <c r="I22">
-        <f>D22^(1/3)</f>
+        <f t="shared" si="13"/>
         <v>0.66943295008216952</v>
       </c>
       <c r="J22">
@@ -4251,14 +4291,14 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <f>SQRT(D23)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <f>D23^(1/3)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J23">
@@ -4273,14 +4313,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F24">
-        <f>SQRT(D24)</f>
+        <f t="shared" si="12"/>
         <v>1.4832396974191326</v>
       </c>
       <c r="G24">
         <v>2.2000000000000002</v>
       </c>
       <c r="I24">
-        <f>D24^(1/3)</f>
+        <f t="shared" si="13"/>
         <v>1.3005914468513871</v>
       </c>
       <c r="J24">
@@ -4295,14 +4335,14 @@
         <v>5</v>
       </c>
       <c r="F25">
-        <f>SQRT(D25)</f>
+        <f t="shared" si="12"/>
         <v>2.2360679774997898</v>
       </c>
       <c r="G25">
         <v>5</v>
       </c>
       <c r="I25">
-        <f>D25^(1/3)</f>
+        <f t="shared" si="13"/>
         <v>1.7099759466766968</v>
       </c>
       <c r="J25">
@@ -4317,14 +4357,14 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <f>SQRT(D26)</f>
+        <f t="shared" si="12"/>
         <v>3.1622776601683795</v>
       </c>
       <c r="G26">
         <v>10</v>
       </c>
       <c r="I26">
-        <f>D26^(1/3)</f>
+        <f t="shared" si="13"/>
         <v>2.1544346900318838</v>
       </c>
       <c r="J26">
@@ -4339,14 +4379,14 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <f>SQRT(D27)</f>
+        <f t="shared" si="12"/>
         <v>4.4721359549995796</v>
       </c>
       <c r="G27">
         <v>20</v>
       </c>
       <c r="I27">
-        <f>D27^(1/3)</f>
+        <f t="shared" si="13"/>
         <v>2.7144176165949063</v>
       </c>
       <c r="J27">
@@ -4361,14 +4401,14 @@
         <v>33</v>
       </c>
       <c r="F28">
-        <f>SQRT(D28)</f>
+        <f t="shared" si="12"/>
         <v>5.7445626465380286</v>
       </c>
       <c r="G28">
         <v>33</v>
       </c>
       <c r="I28">
-        <f>D28^(1/3)</f>
+        <f t="shared" si="13"/>
         <v>3.2075343299958265</v>
       </c>
       <c r="J28">
@@ -4383,14 +4423,14 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <f>SQRT(D29)</f>
+        <f t="shared" si="12"/>
         <v>7.0710678118654755</v>
       </c>
       <c r="G29">
         <v>50</v>
       </c>
       <c r="I29">
-        <f>D29^(1/3)</f>
+        <f t="shared" si="13"/>
         <v>3.6840314986403864</v>
       </c>
       <c r="J29">
@@ -4405,14 +4445,14 @@
         <v>70</v>
       </c>
       <c r="F30">
-        <f>SQRT(D30)</f>
+        <f t="shared" si="12"/>
         <v>8.3666002653407556</v>
       </c>
       <c r="G30">
         <v>70</v>
       </c>
       <c r="I30">
-        <f>D30^(1/3)</f>
+        <f t="shared" si="13"/>
         <v>4.121285299808557</v>
       </c>
       <c r="J30">
@@ -4420,6 +4460,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C4:T14">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D4:T14">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
       <formula>0.66</formula>
@@ -4431,23 +4481,13 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:T14">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4458,10 +4498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DD3D6E-738C-4E11-9AEB-44D7D772855F}">
-  <dimension ref="A2:T9"/>
+  <dimension ref="A2:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4471,16 +4511,10 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>0.1</v>
-      </c>
       <c r="C3">
         <v>0</v>
       </c>
@@ -5001,10 +5035,757 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.01</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>15</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>30</v>
+      </c>
+      <c r="N12">
+        <v>40</v>
+      </c>
+      <c r="O12">
+        <v>50</v>
+      </c>
+      <c r="P12">
+        <v>60</v>
+      </c>
+      <c r="Q12">
+        <v>70</v>
+      </c>
+      <c r="R12">
+        <v>80</v>
+      </c>
+      <c r="S12">
+        <v>90</v>
+      </c>
+      <c r="T12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <f>($B13-C$12)^(1/3)* (($B13-C$12)/100)*((ABS(10-(60.01-$B13)))/10)</f>
+        <v>1.8420157493198265E-3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:N17" si="6">($B13-D$12)^(1/3)* (($B13-D$12)/100)*((ABS(10-(60.01-$B13)))/10)</f>
+        <v>1.841524561494209E-3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="6"/>
+        <v>1.8371053453972901E-3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="6"/>
+        <v>1.7930597979108989E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>1.6961482576648484E-3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>1.6006019870202096E-3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>1.459931190852018E-3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>1.3679807573410854E-3</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>1.1448732085657782E-3</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>9.3216975178597207E-4</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>5.4288352331887323E-4</v>
+      </c>
+      <c r="N13">
+        <f>($B13-N$12)^(1/3)* (($B13-N$12)/100)*((ABS(10-(60.01-$B13)))/10)</f>
+        <v>2.1544346900314551E-4</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="C13:P22" si="7">($B13-O$12)^(1/3)* (($B13-O$12)/100)</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>0.21544346900318839</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:T13" si="8">($B13^(1/2)-Q12^(1/2))/10 *4</f>
+        <v>-0.51821298139011207</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="8"/>
+        <v>-0.74928163925347346</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="8"/>
+        <v>-0.966306067455865</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="8"/>
+        <v>-1.1715728752538097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:O16" si="9">($B14-C$12)^(1/3)* (($B14-C$12)/100)*((ABS(10-(60.01-$B14)))/10)</f>
+        <v>0.38624025450744931</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="9"/>
+        <v>0.38614122171912024</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="9"/>
+        <v>0.38525021243922403</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="9"/>
+        <v>0.37636853728282599</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="9"/>
+        <v>0.35681889978434023</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="9"/>
+        <v>0.33753350327537235</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="9"/>
+        <v>0.30911730024115036</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="9"/>
+        <v>0.29052630697960974</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="9"/>
+        <v>0.24535149493669173</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="9"/>
+        <v>0.20217139797867006</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="9"/>
+        <v>0.12267328189609297</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="9"/>
+        <v>5.4671552224347178E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="9"/>
+        <v>0.59525860347141368</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="9"/>
+        <v>0.59510885758868093</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="9"/>
+        <v>0.59376156866214591</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="9"/>
+        <v>0.58033083466194624</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="9"/>
+        <v>0.55076270904673819</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="9"/>
+        <v>0.52158629496653763</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="9"/>
+        <v>0.47857999411913826</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="9"/>
+        <v>0.45043188862392136</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="9"/>
+        <v>0.38198764572049837</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="9"/>
+        <v>0.31648741234068845</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="9"/>
+        <v>0.19557273220439231</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="9"/>
+        <v>9.1396379311705911E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="9"/>
+        <v>0.81438776823104875</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="9"/>
+        <v>0.81418669103801844</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="9"/>
+        <v>0.81237755511879228</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="9"/>
+        <v>0.7943417484451305</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="9"/>
+        <v>0.75462837374797731</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="9"/>
+        <v>0.71543085936659134</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="9"/>
+        <v>0.65763260624626707</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="9"/>
+        <v>0.61978795374984386</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="9"/>
+        <v>0.52770641264743468</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>0.43948573696130366</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="9"/>
+        <v>0.27621963770527497</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="9"/>
+        <v>0.13463054687682841</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="9"/>
+        <v>2.5334920789412473E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:N17" si="10">($B17-C$12)^(1/3)* (($B17-C$12)/100)*((ABS(10-(60.01-$B17)))/10)</f>
+        <v>1.0437203028559645</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="6"/>
+        <v>1.0434672874199182</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="6"/>
+        <v>1.0411908388654429</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>1.0184949783140183</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>0.9685119949709402</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>0.91916585891077685</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>0.84637798057492819</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>0.7987003915232439</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>0.6826223979133379</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>0.57129173107443731</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>0.36477121284205516</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>0.18459597376363576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="7"/>
+        <v>2.3489205847013181</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="7"/>
+        <v>2.3483986168492086</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="7"/>
+        <v>2.3437022116681292</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="7"/>
+        <v>2.2968678853652236</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="7"/>
+        <v>2.1936456448277784</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>2.0916238534187657</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>1.9409058015449694</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>1.8420157493201932</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="7"/>
+        <v>1.6006019870205281</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="7"/>
+        <v>1.3679807573413578</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="7"/>
+        <v>0.93216975178615757</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="7"/>
+        <v>0.54288352331898126</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>0.21544346900318839</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f>($B18^(1/2)-Q12^(1/2))/10 *4</f>
+        <v>-0.24825342917036863</v>
+      </c>
+      <c r="R18">
+        <f>($B18^(1/2)-R12^(1/2))/10 *4</f>
+        <v>-0.47932208703373008</v>
+      </c>
+      <c r="S18">
+        <f>($B18^(1/2)-S12^(1/2))/10 *4</f>
+        <v>-0.69634651523612168</v>
+      </c>
+      <c r="T18">
+        <f>($B18^(1/2)-T12^(1/2))/10 *4</f>
+        <v>-0.90161332303406638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="7"/>
+        <v>2.8848997098659899</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="7"/>
+        <v>2.8843502182432093</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="7"/>
+        <v>2.8794059715597129</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="7"/>
+        <v>2.8300804914946198</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>2.7212372272986047</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>2.6134717430828873</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>2.4538927980018514</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>2.3489205847013181</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="7"/>
+        <v>2.0916238534187657</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="7"/>
+        <v>1.8420157493201932</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="7"/>
+        <v>1.3679807573413578</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="7"/>
+        <v>0.93216975178615757</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>0.54288352331898126</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>0.21544346900318839</v>
+      </c>
+      <c r="Q19">
+        <f>($B19^(1/2)-Q12^(1/2))/10 *4</f>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f>($B19^(1/2)-R12^(1/2))/10 *4</f>
+        <v>-0.23106865786336145</v>
+      </c>
+      <c r="S19">
+        <f>($B19^(1/2)-S12^(1/2))/10 *4</f>
+        <v>-0.44809308606575299</v>
+      </c>
+      <c r="T19">
+        <f>($B19^(1/2)-T12^(1/2))/10 *4</f>
+        <v>-0.65335989386369775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="7"/>
+        <v>3.4470955040510129</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="7"/>
+        <v>3.4465210001030857</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="7"/>
+        <v>3.4413515421184044</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="7"/>
+        <v>3.3897639373507036</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="7"/>
+        <v>3.2758270661385547</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>3.162872494881559</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="7"/>
+        <v>2.9953207051947413</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>2.8848997098659899</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="7"/>
+        <v>2.6134717430828873</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="7"/>
+        <v>2.3489205847013181</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="7"/>
+        <v>1.8420157493201932</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="7"/>
+        <v>1.3679807573413578</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>0.93216975178615757</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="7"/>
+        <v>0.54288352331898126</v>
+      </c>
+      <c r="Q20">
+        <f>($B20^(1/2)-Q12^(1/2))/10 *4</f>
+        <v>0.23106865786336145</v>
+      </c>
+      <c r="R20">
+        <f>($B20^(1/2)-R12^(1/2))/10 *4</f>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f>($B20^(1/2)-S12^(1/2))/10 *4</f>
+        <v>-0.21702442820239157</v>
+      </c>
+      <c r="T20">
+        <f>($B20^(1/2)-T12^(1/2))/10 *4</f>
+        <v>-0.4222912360003363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>90</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="7"/>
+        <v>4.033264271901448</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="7"/>
+        <v>4.0326667623340446</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="7"/>
+        <v>4.0272901723657375</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="7"/>
+        <v>3.9736231350702376</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>3.8550114308734615</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>3.7373052213344522</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>3.5624748183302617</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>3.4470955040510129</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="7"/>
+        <v>3.162872494881559</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>2.8848997098659899</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>2.3489205847013181</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="7"/>
+        <v>1.8420157493201932</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>1.3679807573413578</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="7"/>
+        <v>0.93216975178615757</v>
+      </c>
+      <c r="Q21">
+        <f>($B21^(1/2)-Q12^(1/2))/10 *4</f>
+        <v>0.44809308606575299</v>
+      </c>
+      <c r="R21">
+        <f>($B21^(1/2)-R12^(1/2))/10 *4</f>
+        <v>0.21702442820239157</v>
+      </c>
+      <c r="S21">
+        <f>($B21^(1/2)-S12^(1/2))/10 *4</f>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f>($B21^(1/2)-T12^(1/2))/10 *4</f>
+        <v>-0.20526680779794476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <f>($B22-C$12)^(1/3)* (($B22-C$12)/100)</f>
+        <v>4.6415888336127793</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="7"/>
+        <v>4.6409699654165006</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="7"/>
+        <v>4.6354010801947911</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="7"/>
+        <v>4.5798043590909137</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="7"/>
+        <v>4.456859865440828</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>4.3347575036176176</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>4.153208840636081</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>4.033264271901448</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="7"/>
+        <v>3.7373052213344522</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>3.4470955040510129</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="7"/>
+        <v>2.8848997098659899</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="7"/>
+        <v>2.3489205847013181</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>1.8420157493201932</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="7"/>
+        <v>1.3679807573413578</v>
+      </c>
+      <c r="Q22">
+        <f>($B22^(1/2)-Q12^(1/2))/10 *4</f>
+        <v>0.65335989386369775</v>
+      </c>
+      <c r="R22">
+        <f>($B22^(1/2)-R12^(1/2))/10 *4</f>
+        <v>0.4222912360003363</v>
+      </c>
+      <c r="S22">
+        <f>($B22^(1/2)-S12^(1/2))/10 *4</f>
+        <v>0.20526680779794476</v>
+      </c>
+      <c r="T22">
+        <f>($B22^(1/2)-T12^(1/2))/10 *4</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C4:T9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0.66</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:T22">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:T32">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
